--- a/docs/Pulse/MSA_Rent_Confidence_Data.xlsx
+++ b/docs/Pulse/MSA_Rent_Confidence_Data.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3ffa46215b92b56/Programming/Evictions/Pulse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\compu\OneDrive\Documents\GitHub\COVID-19\docs\Pulse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92F88851-7B17-49B6-A623-BF597E37716B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{92F88851-7B17-49B6-A623-BF597E37716B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E68184F-9C76-4EDE-AE8F-8408E09B8861}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA_Rent_Confidence_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1004,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1021,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1055,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1072,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1106,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1123,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1157,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1174,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>147</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1208,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1225,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1259,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1276,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1310,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1327,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1361,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1378,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1412,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1429,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1463,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1480,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1497,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1514,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1548,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1565,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1582,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1599,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1633,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1650,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1667,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1684,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1718,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1735,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="2">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1769,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1786,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1820,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1837,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="2">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1871,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1888,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1922,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1939,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="2">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1956,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1973,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2007,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2024,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="2">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2041,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2058,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2092,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2109,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="2">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2143,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2160,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2177,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2194,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="2">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2211,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2228,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2262,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2279,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2313,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2330,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="1">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2364,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2381,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2415,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2432,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2466,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2483,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="2">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2500,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2517,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2534,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2551,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="2">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2568,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2585,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2619,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2636,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2670,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2687,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="1">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2721,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2738,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2772,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2789,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="1">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2823,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2840,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2874,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2891,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2908,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2925,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="2">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2959,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2976,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="1">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3010,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="2">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3027,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="2">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3044,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3061,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="1">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3095,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3112,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3146,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3163,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3197,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3214,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3231,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3248,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3282,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3299,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="2">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3316,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3333,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3367,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="2">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3384,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="2">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3401,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3418,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="E144" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3452,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3469,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="2">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3486,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3503,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="1">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3537,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3554,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="E152" s="2">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3571,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3588,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="1">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3605,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="2">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3622,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="2">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3656,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3673,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="E159" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3707,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3724,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3758,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3775,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E165" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3792,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="2">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3809,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="E167" s="2">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3843,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>94</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3860,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="1">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3894,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="2">
-        <v>30</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3911,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="E173" s="2">
-        <v>248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3945,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3962,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="1">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -3996,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="2">
-        <v>37</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4013,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="E179" s="2">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4047,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="1">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4064,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="1">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4098,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="2">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4115,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="E185" s="2">
-        <v>227</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4149,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="1">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4166,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="E188" s="1">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4200,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4217,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="E191" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4251,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4268,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4302,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4319,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E197" s="2">
-        <v>164</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4353,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="1">
-        <v>173</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4370,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="E200" s="1">
-        <v>278</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4404,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="2">
-        <v>36</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4421,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="E203" s="2">
-        <v>233</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4455,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="1">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4472,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E206" s="1">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4506,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="2">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4523,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="E209" s="2">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4557,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="1">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4574,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="E212" s="1">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4608,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="2">
-        <v>67</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4625,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="E215" s="2">
-        <v>313</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4659,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="1">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4676,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="E218" s="1">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4710,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="2">
-        <v>47</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4727,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="E221" s="2">
-        <v>212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4761,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="1">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4778,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="E224" s="1">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4812,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4829,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="E227" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4863,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="1">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4880,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="E230" s="1">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4914,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="2">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4931,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="E233" s="2">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4948,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="1">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4965,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="E235" s="1">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -4999,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="2">
-        <v>19</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5016,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="E238" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5033,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="1">
-        <v>83</v>
+        <v>169</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5050,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="E240" s="1">
-        <v>169</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5084,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="2">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5101,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="E243" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5135,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="1">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5152,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="E246" s="1">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5186,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5203,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="E249" s="2">
-        <v>334</v>
+        <v>53</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5237,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="1">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5254,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="E252" s="1">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5288,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="2">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5305,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="E255" s="2">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5322,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="1">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5339,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="E257" s="1">
-        <v>119</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5373,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="2">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5390,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="E260" s="2">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5424,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="1">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5441,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="E263" s="1">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5458,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="2">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5475,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="E265" s="2">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5492,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="1">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5509,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="E267" s="1">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5543,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="2">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5560,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="E270" s="2">
-        <v>178</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5577,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="1">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5594,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="E272" s="1">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5628,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5645,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="E275" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5679,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="E277" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5696,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="E278" s="1">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5730,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="E280" s="2">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5747,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="E281" s="2">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5781,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="E283" s="1">
-        <v>116</v>
+        <v>192</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5798,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="E284" s="1">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5832,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="2">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5849,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="E287" s="2">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5883,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="E289" s="1">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5900,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="E290" s="1">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5934,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="E292" s="2">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5951,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="E293" s="2">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -5985,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="1">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6002,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="E296" s="1">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6036,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6053,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="E299" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6087,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="E301" s="1">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6104,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="E302" s="1">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6138,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="2">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6155,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="E305" s="2">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6189,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="1">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6206,7 +6214,7 @@
         <v>2</v>
       </c>
       <c r="E308" s="1">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6240,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="2">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6257,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="E311" s="2">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6291,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6308,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="E314" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6342,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="E316" s="2">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6359,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="E317" s="2">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6376,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="E318" s="1">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6393,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="E319" s="1">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6427,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="E321" s="2">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6444,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="E322" s="2">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6478,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="E324" s="1">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6495,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="E325" s="1">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6529,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="E327" s="2">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6546,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="E328" s="2">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6580,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="E330" s="1">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6597,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="E331" s="1">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6631,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="E333" s="2">
-        <v>22</v>
+        <v>233</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6648,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="E334" s="2">
-        <v>233</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6682,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="E336" s="1">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6699,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="E337" s="1">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6733,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="E339" s="2">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6750,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="E340" s="2">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6767,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="E341" s="1">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6784,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="E342" s="1">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6801,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="E343" s="2">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6818,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="E344" s="2">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6852,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="E346" s="1">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6869,7 +6877,7 @@
         <v>2</v>
       </c>
       <c r="E347" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6903,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="E349" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6920,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="E350" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6937,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="E351" s="1">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6954,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="E352" s="1">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -6988,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="E354" s="2">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7005,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="E355" s="2">
-        <v>185</v>
+        <v>23</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7039,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="E357" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7056,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="E358" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7090,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="E360" s="2">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7107,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="E361" s="2">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7141,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="E363" s="1">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7158,7 +7166,7 @@
         <v>2</v>
       </c>
       <c r="E364" s="1">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7192,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="E366" s="2">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7209,7 +7217,7 @@
         <v>2</v>
       </c>
       <c r="E367" s="2">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7243,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="E369" s="1">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7260,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="E370" s="1">
-        <v>238</v>
+        <v>123</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7294,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="E372" s="2">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7311,7 +7319,7 @@
         <v>2</v>
       </c>
       <c r="E373" s="2">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7345,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="E375" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7362,7 +7370,7 @@
         <v>2</v>
       </c>
       <c r="E376" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7396,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="E378" s="2">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7413,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="E379" s="2">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7447,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="E381" s="1">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7464,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="E382" s="1">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7498,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="E384" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7515,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="E385" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7549,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="E387" s="1">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7566,7 +7574,7 @@
         <v>2</v>
       </c>
       <c r="E388" s="1">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7600,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="E390" s="2">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7617,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="E391" s="2">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7651,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="E393" s="1">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7668,7 +7676,7 @@
         <v>2</v>
       </c>
       <c r="E394" s="1">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7685,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="E395" s="2">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7702,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="E396" s="2">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7736,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="E398" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7753,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="E399" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7787,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="E401" s="2">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7804,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="E402" s="2">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7838,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="E404" s="1">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7855,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="E405" s="1">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7889,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="E407" s="2">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7906,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="E408" s="2">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7940,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="E410" s="1">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7957,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="E411" s="1">
-        <v>119</v>
+        <v>44</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -7991,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="E413" s="2">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8008,7 +8016,7 @@
         <v>2</v>
       </c>
       <c r="E414" s="2">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8042,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="E416" s="1">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8059,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="E417" s="1">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8093,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="E419" s="2">
-        <v>32</v>
+        <v>226</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8110,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="E420" s="2">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8144,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="E422" s="1">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8161,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="E423" s="1">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8195,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="E425" s="2">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8212,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="E426" s="2">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8246,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="E428" s="1">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8263,7 +8271,7 @@
         <v>2</v>
       </c>
       <c r="E429" s="1">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8297,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="E431" s="2">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8314,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="E432" s="2">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8348,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="E434" s="1">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8365,7 +8373,7 @@
         <v>2</v>
       </c>
       <c r="E435" s="1">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8399,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="E437" s="2">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8416,7 +8424,7 @@
         <v>2</v>
       </c>
       <c r="E438" s="2">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8450,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="E440" s="1">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8467,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="E441" s="1">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8501,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="E443" s="2">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8518,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="E444" s="2">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8552,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="E446" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8569,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="E447" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8603,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="E449" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8620,7 +8628,7 @@
         <v>2</v>
       </c>
       <c r="E450" s="2">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8654,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="E452" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8671,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="E453" s="1">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8705,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="E455" s="2">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8722,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="E456" s="2">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8756,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="E458" s="1">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8773,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="E459" s="1">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8807,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="E461" s="2">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8824,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="E462" s="2">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8841,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="E463" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8858,7 +8866,7 @@
         <v>2</v>
       </c>
       <c r="E464" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8892,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="E466" s="2">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8909,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="E467" s="2">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8943,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="E469" s="1">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8960,7 +8968,7 @@
         <v>2</v>
       </c>
       <c r="E470" s="1">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -8994,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="E472" s="2">
-        <v>29</v>
+        <v>164</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9011,7 +9019,7 @@
         <v>2</v>
       </c>
       <c r="E473" s="2">
-        <v>164</v>
+        <v>29</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9045,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="E475" s="1">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9062,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="E476" s="1">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9079,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="E477" s="2">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9096,7 +9104,7 @@
         <v>2</v>
       </c>
       <c r="E478" s="2">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9113,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="E479" s="1">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9130,7 +9138,7 @@
         <v>2</v>
       </c>
       <c r="E480" s="1">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9164,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="E482" s="2">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9181,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="E483" s="2">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9215,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="E485" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9232,7 +9240,7 @@
         <v>2</v>
       </c>
       <c r="E486" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9249,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="E487" s="2">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9266,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="E488" s="2">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9300,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="E490" s="1">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9317,7 +9325,7 @@
         <v>2</v>
       </c>
       <c r="E491" s="1">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9334,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="E492" s="2">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9351,7 +9359,7 @@
         <v>2</v>
       </c>
       <c r="E493" s="2">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9368,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="E494" s="1">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9385,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="E495" s="1">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9419,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E497" s="2">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9436,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="E498" s="2">
-        <v>130</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9470,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="E500" s="1">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9487,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="E501" s="1">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9521,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="E503" s="2">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9538,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="E504" s="2">
-        <v>190</v>
+        <v>23</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9572,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="E506" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9589,7 +9597,7 @@
         <v>2</v>
       </c>
       <c r="E507" s="1">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9623,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="E509" s="2">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9640,7 +9648,7 @@
         <v>2</v>
       </c>
       <c r="E510" s="2">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9674,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="E512" s="1">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9691,7 +9699,7 @@
         <v>2</v>
       </c>
       <c r="E513" s="1">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9708,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="E514" s="2">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9725,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="E515" s="2">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9759,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="E517" s="1">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9776,7 +9784,7 @@
         <v>2</v>
       </c>
       <c r="E518" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9810,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="E520" s="2">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9827,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="E521" s="2">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9844,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="E522" s="1">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9861,7 +9869,7 @@
         <v>2</v>
       </c>
       <c r="E523" s="1">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9895,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="E525" s="2">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9912,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="E526" s="2">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9946,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="E528" s="1">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9963,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="E529" s="1">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9980,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="E530" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -9997,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="E531" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10014,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="E532" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10031,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="E533" s="1">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10048,7 +10056,7 @@
         <v>1</v>
       </c>
       <c r="E534" s="2">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10065,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="E535" s="2">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10099,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="E537" s="1">
-        <v>100</v>
+        <v>171</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10116,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="E538" s="1">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10150,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="E540" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10167,7 +10175,7 @@
         <v>2</v>
       </c>
       <c r="E541" s="2">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10201,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="E543" s="1">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10218,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="E544" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10252,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="E546" s="2">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10269,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="E547" s="2">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10286,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E548" s="1">
-        <v>121</v>
+        <v>180</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10303,7 +10311,7 @@
         <v>2</v>
       </c>
       <c r="E549" s="1">
-        <v>180</v>
+        <v>121</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10337,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="E551" s="2">
-        <v>29</v>
+        <v>174</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10354,7 +10362,7 @@
         <v>2</v>
       </c>
       <c r="E552" s="2">
-        <v>174</v>
+        <v>29</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10388,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="E554" s="1">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10405,7 +10413,7 @@
         <v>2</v>
       </c>
       <c r="E555" s="1">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10422,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="E556" s="2">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10439,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="E557" s="2">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10456,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="E558" s="1">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10473,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="E559" s="1">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10507,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="E561" s="2">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10524,7 +10532,7 @@
         <v>2</v>
       </c>
       <c r="E562" s="2">
-        <v>118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10558,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="E564" s="1">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10575,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="E565" s="1">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10609,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="E567" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10626,7 +10634,7 @@
         <v>2</v>
       </c>
       <c r="E568" s="2">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10643,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="E569" s="1">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10660,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="E570" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10694,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="E572" s="2">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10711,7 +10719,7 @@
         <v>2</v>
       </c>
       <c r="E573" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10745,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="E575" s="1">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10762,7 +10770,7 @@
         <v>2</v>
       </c>
       <c r="E576" s="1">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10779,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="E577" s="2">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10796,7 +10804,7 @@
         <v>2</v>
       </c>
       <c r="E578" s="2">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10830,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="E580" s="1">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10847,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="E581" s="1">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10881,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="E583" s="2">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10898,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="E584" s="2">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10915,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="E585" s="1">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10932,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E586" s="1">
-        <v>122</v>
+        <v>64</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10966,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="E588" s="2">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -10983,7 +10991,7 @@
         <v>2</v>
       </c>
       <c r="E589" s="2">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11017,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="E591" s="1">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11034,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="E592" s="1">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11068,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="E594" s="2">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11085,7 +11093,7 @@
         <v>2</v>
       </c>
       <c r="E595" s="2">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11119,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="E597" s="1">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11136,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="E598" s="1">
-        <v>151</v>
+        <v>70</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11170,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="E600" s="2">
-        <v>31</v>
+        <v>162</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11187,7 +11195,7 @@
         <v>2</v>
       </c>
       <c r="E601" s="2">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11204,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="E602" s="1">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11221,7 +11229,7 @@
         <v>2</v>
       </c>
       <c r="E603" s="1">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11255,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="E605" s="2">
-        <v>29</v>
+        <v>189</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11272,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="E606" s="2">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11306,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="E608" s="1">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11323,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="E609" s="1">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11357,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="E611" s="2">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11374,7 +11382,7 @@
         <v>2</v>
       </c>
       <c r="E612" s="2">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11408,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="E614" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11425,7 +11433,7 @@
         <v>2</v>
       </c>
       <c r="E615" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11459,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="E617" s="2">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11476,7 +11484,7 @@
         <v>2</v>
       </c>
       <c r="E618" s="2">
-        <v>130</v>
+        <v>29</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11493,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="E619" s="1">
-        <v>146</v>
+        <v>261</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11510,7 +11518,7 @@
         <v>2</v>
       </c>
       <c r="E620" s="1">
-        <v>261</v>
+        <v>146</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11544,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="E622" s="2">
-        <v>26</v>
+        <v>215</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11561,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="E623" s="2">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11595,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="E625" s="1">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11612,7 +11620,7 @@
         <v>2</v>
       </c>
       <c r="E626" s="1">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11646,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="E628" s="2">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11663,7 +11671,7 @@
         <v>2</v>
       </c>
       <c r="E629" s="2">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11697,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="E631" s="1">
-        <v>180</v>
+        <v>236</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11714,7 +11722,7 @@
         <v>2</v>
       </c>
       <c r="E632" s="1">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11748,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="E634" s="2">
-        <v>48</v>
+        <v>210</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11765,7 +11773,7 @@
         <v>2</v>
       </c>
       <c r="E635" s="2">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11799,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="E637" s="1">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11816,7 +11824,7 @@
         <v>2</v>
       </c>
       <c r="E638" s="1">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11850,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="E640" s="2">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11867,7 +11875,7 @@
         <v>2</v>
       </c>
       <c r="E641" s="2">
-        <v>178</v>
+        <v>35</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11901,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="E643" s="1">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11918,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="E644" s="1">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11952,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="E646" s="2">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -11969,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="E647" s="2">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12003,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="E649" s="1">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12020,7 +12028,7 @@
         <v>2</v>
       </c>
       <c r="E650" s="1">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12054,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="E652" s="2">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12071,7 +12079,7 @@
         <v>2</v>
       </c>
       <c r="E653" s="2">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12105,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="E655" s="1">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12122,7 +12130,7 @@
         <v>2</v>
       </c>
       <c r="E656" s="1">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12156,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="E658" s="2">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12173,7 +12181,7 @@
         <v>2</v>
       </c>
       <c r="E659" s="2">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12207,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="E661" s="1">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12224,7 +12232,7 @@
         <v>2</v>
       </c>
       <c r="E662" s="1">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12258,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="E664" s="2">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12275,7 +12283,7 @@
         <v>2</v>
       </c>
       <c r="E665" s="2">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12309,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="E667" s="1">
-        <v>97</v>
+        <v>186</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12326,7 +12334,7 @@
         <v>2</v>
       </c>
       <c r="E668" s="1">
-        <v>186</v>
+        <v>97</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12360,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="E670" s="2">
-        <v>38</v>
+        <v>257</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12377,7 +12385,7 @@
         <v>2</v>
       </c>
       <c r="E671" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12411,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="E673" s="1">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12428,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="E674" s="1">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12462,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="E676" s="2">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12479,7 +12487,7 @@
         <v>2</v>
       </c>
       <c r="E677" s="2">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12496,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="E678" s="1">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12513,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="E679" s="1">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12547,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="E681" s="2">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12564,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="E682" s="2">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12598,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="E684" s="1">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12615,7 +12623,7 @@
         <v>2</v>
       </c>
       <c r="E685" s="1">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12649,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="E687" s="2">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12666,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="E688" s="2">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12700,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="E690" s="1">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12717,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="E691" s="1">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12734,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="E692" s="2">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12751,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="E693" s="2">
-        <v>176</v>
+        <v>34</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12768,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="E694" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12785,7 +12793,7 @@
         <v>2</v>
       </c>
       <c r="E695" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12819,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="E697" s="2">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12836,7 +12844,7 @@
         <v>2</v>
       </c>
       <c r="E698" s="2">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12853,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="E699" s="1">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12870,7 +12878,7 @@
         <v>2</v>
       </c>
       <c r="E700" s="1">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12904,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="E702" s="2">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12921,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="E703" s="2">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12955,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="E705" s="1">
-        <v>116</v>
+        <v>216</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -12972,7 +12980,7 @@
         <v>2</v>
       </c>
       <c r="E706" s="1">
-        <v>216</v>
+        <v>116</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13006,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="E708" s="2">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13023,7 +13031,7 @@
         <v>2</v>
       </c>
       <c r="E709" s="2">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13057,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="E711" s="1">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="712" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13074,7 +13082,7 @@
         <v>2</v>
       </c>
       <c r="E712" s="1">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13108,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="E714" s="2">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13125,7 +13133,7 @@
         <v>2</v>
       </c>
       <c r="E715" s="2">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13159,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="E717" s="1">
-        <v>158</v>
+        <v>236</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13176,7 +13184,7 @@
         <v>2</v>
       </c>
       <c r="E718" s="1">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13210,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="E720" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13227,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="E721" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13261,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="E723" s="1">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13278,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="E724" s="1">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13312,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="E726" s="2">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13329,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="E727" s="2">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13346,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="E728" s="1">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="729" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13363,7 +13371,7 @@
         <v>2</v>
       </c>
       <c r="E729" s="1">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13397,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="E731" s="2">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13414,7 +13422,7 @@
         <v>2</v>
       </c>
       <c r="E732" s="2">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13431,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="E733" s="1">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="734" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13448,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="E734" s="1">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13482,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="E736" s="2">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="737" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13499,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="E737" s="2">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13516,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="E738" s="1">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13533,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="E739" s="1">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="740" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13567,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="E741" s="2">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13584,7 +13592,7 @@
         <v>2</v>
       </c>
       <c r="E742" s="2">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="743" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13601,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="E743" s="1">
-        <v>46</v>
+        <v>134</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13618,7 +13626,7 @@
         <v>2</v>
       </c>
       <c r="E744" s="1">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13635,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="E745" s="2">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13652,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="E746" s="2">
-        <v>161</v>
+        <v>17</v>
       </c>
     </row>
     <row r="747" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13686,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="E748" s="1">
-        <v>85</v>
+        <v>142</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13703,7 +13711,7 @@
         <v>2</v>
       </c>
       <c r="E749" s="1">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="750" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13737,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="E751" s="2">
-        <v>26</v>
+        <v>233</v>
       </c>
     </row>
     <row r="752" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13754,7 +13762,7 @@
         <v>2</v>
       </c>
       <c r="E752" s="2">
-        <v>233</v>
+        <v>26</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13788,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="E754" s="1">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13805,7 +13813,7 @@
         <v>2</v>
       </c>
       <c r="E755" s="1">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="756" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13839,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="E757" s="2">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="758" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13856,7 +13864,7 @@
         <v>2</v>
       </c>
       <c r="E758" s="2">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13873,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="E759" s="1">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13890,7 +13898,7 @@
         <v>2</v>
       </c>
       <c r="E760" s="1">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13924,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="E762" s="2">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13941,7 +13949,7 @@
         <v>2</v>
       </c>
       <c r="E763" s="2">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13975,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="E765" s="1">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="766" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -13992,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="E766" s="1">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14026,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="E768" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14043,7 +14051,7 @@
         <v>2</v>
       </c>
       <c r="E769" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14077,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="E771" s="1">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14094,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="1">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14111,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="E773" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="774" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14128,7 +14136,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14145,7 +14153,7 @@
         <v>1</v>
       </c>
       <c r="E775" s="1">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="776" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14162,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="E776" s="1">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14179,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="E777" s="2">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="778" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14196,7 +14204,7 @@
         <v>2</v>
       </c>
       <c r="E778" s="2">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14230,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="E780" s="1">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="781" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14247,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="E781" s="1">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14281,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="E783" s="2">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="784" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14298,7 +14306,7 @@
         <v>2</v>
       </c>
       <c r="E784" s="2">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14332,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="E786" s="1">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="787" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14349,7 +14357,7 @@
         <v>2</v>
       </c>
       <c r="E787" s="1">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14383,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="E789" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14400,7 +14408,7 @@
         <v>2</v>
       </c>
       <c r="E790" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14417,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="E791" s="1">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14434,7 +14442,7 @@
         <v>2</v>
       </c>
       <c r="E792" s="1">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14468,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="E794" s="2">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14485,7 +14493,7 @@
         <v>2</v>
       </c>
       <c r="E795" s="2">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14502,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="E796" s="1">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="797" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14519,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="E797" s="1">
-        <v>230</v>
+        <v>171</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14553,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="E799" s="2">
-        <v>31</v>
+        <v>188</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14570,7 +14578,7 @@
         <v>2</v>
       </c>
       <c r="E800" s="2">
-        <v>188</v>
+        <v>31</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14604,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="E802" s="1">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14621,7 +14629,7 @@
         <v>2</v>
       </c>
       <c r="E803" s="1">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14655,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="E805" s="2">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14672,7 +14680,7 @@
         <v>2</v>
       </c>
       <c r="E806" s="2">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14706,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="E808" s="1">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14723,7 +14731,7 @@
         <v>2</v>
       </c>
       <c r="E809" s="1">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14757,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="E811" s="2">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14774,7 +14782,7 @@
         <v>2</v>
       </c>
       <c r="E812" s="2">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14808,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="E814" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="815" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14825,7 +14833,7 @@
         <v>2</v>
       </c>
       <c r="E815" s="1">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14859,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="E817" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14876,7 +14884,7 @@
         <v>2</v>
       </c>
       <c r="E818" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14893,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="E819" s="1">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14910,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="E820" s="1">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="821" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14944,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="E822" s="2">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="823" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14961,7 +14969,7 @@
         <v>2</v>
       </c>
       <c r="E823" s="2">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="824" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -14995,7 +15003,7 @@
         <v>1</v>
       </c>
       <c r="E825" s="1">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15012,7 +15020,7 @@
         <v>2</v>
       </c>
       <c r="E826" s="1">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15046,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="E828" s="2">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="829" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15063,7 +15071,7 @@
         <v>2</v>
       </c>
       <c r="E829" s="2">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15097,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="E831" s="1">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15114,7 +15122,7 @@
         <v>2</v>
       </c>
       <c r="E832" s="1">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15148,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="E834" s="2">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15165,7 +15173,7 @@
         <v>2</v>
       </c>
       <c r="E835" s="2">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15199,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="E837" s="1">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15216,7 +15224,7 @@
         <v>2</v>
       </c>
       <c r="E838" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15250,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="E840" s="2">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15267,7 +15275,7 @@
         <v>2</v>
       </c>
       <c r="E841" s="2">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15301,7 +15309,7 @@
         <v>1</v>
       </c>
       <c r="E843" s="1">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15318,7 +15326,7 @@
         <v>2</v>
       </c>
       <c r="E844" s="1">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15352,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="E846" s="2">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15369,7 +15377,7 @@
         <v>2</v>
       </c>
       <c r="E847" s="2">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15386,7 +15394,7 @@
         <v>1</v>
       </c>
       <c r="E848" s="1">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15403,7 +15411,7 @@
         <v>2</v>
       </c>
       <c r="E849" s="1">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15437,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="E851" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15454,7 +15462,7 @@
         <v>2</v>
       </c>
       <c r="E852" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15488,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="E854" s="1">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15505,7 +15513,7 @@
         <v>2</v>
       </c>
       <c r="E855" s="1">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15522,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="E856" s="2">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15539,7 +15547,7 @@
         <v>2</v>
       </c>
       <c r="E857" s="2">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="858" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15573,7 +15581,7 @@
         <v>1</v>
       </c>
       <c r="E859" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15590,7 +15598,7 @@
         <v>2</v>
       </c>
       <c r="E860" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15607,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="E861" s="2">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15624,7 +15632,7 @@
         <v>2</v>
       </c>
       <c r="E862" s="2">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15641,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="E863" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15658,7 +15666,7 @@
         <v>2</v>
       </c>
       <c r="E864" s="1">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15692,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="E866" s="2">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15709,7 +15717,7 @@
         <v>2</v>
       </c>
       <c r="E867" s="2">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15726,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="E868" s="1">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15743,7 +15751,7 @@
         <v>2</v>
       </c>
       <c r="E869" s="1">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="870" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15777,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="E871" s="2">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="872" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15794,7 +15802,7 @@
         <v>2</v>
       </c>
       <c r="E872" s="2">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="873" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15828,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="E874" s="1">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="875" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15845,7 +15853,7 @@
         <v>2</v>
       </c>
       <c r="E875" s="1">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="876" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15879,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="E877" s="2">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="878" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15896,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="E878" s="2">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="879" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15930,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="E880" s="1">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="881" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15947,7 +15955,7 @@
         <v>2</v>
       </c>
       <c r="E881" s="1">
-        <v>237</v>
+        <v>145</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15981,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="E883" s="2">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
     <row r="884" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -15998,7 +16006,7 @@
         <v>2</v>
       </c>
       <c r="E884" s="2">
-        <v>190</v>
+        <v>34</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16015,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="E885" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="886" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16032,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="E886" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="887" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16066,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="E888" s="2">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="889" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16083,7 +16091,7 @@
         <v>2</v>
       </c>
       <c r="E889" s="2">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="890" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16100,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="E890" s="1">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="891" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16117,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="E891" s="1">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="892" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16151,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="E893" s="2">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="894" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16168,7 +16176,7 @@
         <v>2</v>
       </c>
       <c r="E894" s="2">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="895" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16185,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="E895" s="1">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="896" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16202,7 +16210,7 @@
         <v>2</v>
       </c>
       <c r="E896" s="1">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="897" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16236,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="E898" s="2">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="899" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16253,7 +16261,7 @@
         <v>2</v>
       </c>
       <c r="E899" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="900" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16287,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="E901" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="902" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16304,7 +16312,7 @@
         <v>2</v>
       </c>
       <c r="E902" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="903" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16338,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="E904" s="2">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="905" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16355,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="E905" s="2">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="906" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16372,7 +16380,7 @@
         <v>1</v>
       </c>
       <c r="E906" s="1">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="907" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16389,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="E907" s="1">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="908" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16423,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="E909" s="2">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="910" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16440,7 +16448,7 @@
         <v>2</v>
       </c>
       <c r="E910" s="2">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="911" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16457,7 +16465,7 @@
         <v>1</v>
       </c>
       <c r="E911" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="912" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16474,7 +16482,7 @@
         <v>2</v>
       </c>
       <c r="E912" s="1">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="913" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16491,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="E913" s="2">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="914" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16508,7 +16516,7 @@
         <v>2</v>
       </c>
       <c r="E914" s="2">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="915" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16542,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="E916" s="1">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="917" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16559,7 +16567,7 @@
         <v>2</v>
       </c>
       <c r="E917" s="1">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="918" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16593,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="E919" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="920" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16610,7 +16618,7 @@
         <v>2</v>
       </c>
       <c r="E920" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="921" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16644,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="E922" s="1">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="923" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16661,7 +16669,7 @@
         <v>2</v>
       </c>
       <c r="E923" s="1">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="924" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16695,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="E925" s="2">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="926" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16712,7 +16720,7 @@
         <v>2</v>
       </c>
       <c r="E926" s="2">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="927" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16746,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="E928" s="1">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="929" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16763,7 +16771,7 @@
         <v>2</v>
       </c>
       <c r="E929" s="1">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="930" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16797,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="E931" s="2">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16814,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="E932" s="2">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="933" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16831,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="E933" s="1">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="934" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16848,7 +16856,7 @@
         <v>2</v>
       </c>
       <c r="E934" s="1">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="935" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16882,7 +16890,7 @@
         <v>1</v>
       </c>
       <c r="E936" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="937" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16899,7 +16907,7 @@
         <v>2</v>
       </c>
       <c r="E937" s="2">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="938" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16933,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="E939" s="1">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="940" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16950,7 +16958,7 @@
         <v>2</v>
       </c>
       <c r="E940" s="1">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="941" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16967,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="E941" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="942" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -16984,7 +16992,7 @@
         <v>2</v>
       </c>
       <c r="E942" s="2">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="943" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17001,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="E943" s="1">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="944" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17018,7 +17026,7 @@
         <v>2</v>
       </c>
       <c r="E944" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="945" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17052,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="E946" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="947" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17069,7 +17077,7 @@
         <v>2</v>
       </c>
       <c r="E947" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="948" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17086,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="E948" s="1">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="949" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17103,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="E949" s="1">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="950" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17137,7 +17145,7 @@
         <v>1</v>
       </c>
       <c r="E951" s="2">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="952" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17154,7 +17162,7 @@
         <v>2</v>
       </c>
       <c r="E952" s="2">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="953" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17188,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="E954" s="1">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="955" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17205,7 +17213,7 @@
         <v>2</v>
       </c>
       <c r="E955" s="1">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="956" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17239,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="E957" s="2">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="958" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17256,7 +17264,7 @@
         <v>2</v>
       </c>
       <c r="E958" s="2">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="959" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17273,7 +17281,7 @@
         <v>1</v>
       </c>
       <c r="E959" s="1">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="960" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17290,7 +17298,7 @@
         <v>2</v>
       </c>
       <c r="E960" s="1">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="961" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17324,7 +17332,7 @@
         <v>1</v>
       </c>
       <c r="E962" s="2">
-        <v>29</v>
+        <v>178</v>
       </c>
     </row>
     <row r="963" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17341,7 +17349,7 @@
         <v>2</v>
       </c>
       <c r="E963" s="2">
-        <v>178</v>
+        <v>29</v>
       </c>
     </row>
     <row r="964" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17375,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="E965" s="1">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="966" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17392,7 +17400,7 @@
         <v>2</v>
       </c>
       <c r="E966" s="1">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="967" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17426,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="E968" s="2">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="969" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17443,7 +17451,7 @@
         <v>2</v>
       </c>
       <c r="E969" s="2">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="970" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17460,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="E970" s="1">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="971" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17477,7 +17485,7 @@
         <v>2</v>
       </c>
       <c r="E971" s="1">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="972" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17511,7 +17519,7 @@
         <v>1</v>
       </c>
       <c r="E973" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="974" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17528,7 +17536,7 @@
         <v>2</v>
       </c>
       <c r="E974" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="975" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17545,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="E975" s="1">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="976" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17562,7 +17570,7 @@
         <v>2</v>
       </c>
       <c r="E976" s="1">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="977" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17596,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="E978" s="2">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="979" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17613,7 +17621,7 @@
         <v>2</v>
       </c>
       <c r="E979" s="2">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="980" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17647,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="E981" s="1">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="982" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17664,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="E982" s="1">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="983" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17698,7 +17706,7 @@
         <v>1</v>
       </c>
       <c r="E984" s="2">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="985" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17715,7 +17723,7 @@
         <v>2</v>
       </c>
       <c r="E985" s="2">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="986" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17732,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="E986" s="1">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="987" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17749,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="E987" s="1">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="988" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17783,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="E989" s="2">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="990" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17800,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="E990" s="2">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="991" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17834,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="E992" s="1">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="993" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17851,7 +17859,7 @@
         <v>2</v>
       </c>
       <c r="E993" s="1">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="994" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17885,7 +17893,7 @@
         <v>1</v>
       </c>
       <c r="E995" s="2">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="996" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17902,7 +17910,7 @@
         <v>2</v>
       </c>
       <c r="E996" s="2">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="997" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -17923,7 +17931,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F997">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E997">
     <sortCondition ref="A2:A997"/>
     <sortCondition ref="B2:B997"/>
     <sortCondition ref="C2:C997"/>
